--- a/design/JuiceZombie/玩法设计.xlsx
+++ b/design/JuiceZombie/玩法设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\design\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1FF810-DCB8-41AC-81FF-7EDB63312A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FBC42D-2691-455A-BD97-C2F751F79A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计正文" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>模块</t>
   </si>
@@ -489,26 +489,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力中，血量高</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力高，血量低</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程攻击力高，血低</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能攻击高，血低</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能攻击中，血低</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>精英怪(成功击败后掉落3选1遗物，失败则退出地下城)</t>
   </si>
   <si>
@@ -600,6 +580,38 @@
   </si>
   <si>
     <t>平衡随机性：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战物理流：利用武器的高攻击、低攻速、大范围配合近战杀敌加攻击回血等被动打输出。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战反击流：主堆生命护甲，堆技能防守反击等级提升反击概率(类似dota斧王)打伤害。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃生技能：触发后 隐身</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力高，血量低，移速快</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力中，血量高，移速慢</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击力高，血低，移速中等</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击高，血低，移速中等</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击中，血低，移速中等</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +911,7 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,7 +942,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,21 +1219,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="8" customWidth="1"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1237,7 +1249,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
@@ -1254,17 +1266,17 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="17.399999999999999">
       <c r="B8" s="19" t="s">
         <v>36</v>
       </c>
@@ -1289,112 +1301,112 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="B10" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="C13" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="C14" s="20"/>
       <c r="D14" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="B18" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="C19" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="C20" s="20"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="C21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
       <c r="E22" s="9"/>
       <c r="F22" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26">
       <c r="E23" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="D24" s="14"/>
       <c r="F24" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26">
       <c r="C25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26">
       <c r="B26" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26">
       <c r="C27" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26">
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="2:26" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="10" customFormat="1" ht="17.399999999999999">
       <c r="B32" s="19" t="s">
         <v>47</v>
       </c>
@@ -1419,363 +1431,425 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="20"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="D38" s="20"/>
       <c r="E38" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D39" s="20"/>
       <c r="E39" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="D41" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="E44" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
+      <c r="D47" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="C57" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D49" s="20" t="s">
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="D58" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D50" s="20" t="s">
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="D59" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C56" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-    </row>
-    <row r="66" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C68" s="12"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-    </row>
-    <row r="69" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C69" s="16"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C70" s="17"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C72" s="17"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-    </row>
-    <row r="81" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="C65" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="B68" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+    </row>
+    <row r="75" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.6">
+      <c r="C77" s="12"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.6">
+      <c r="C78" s="16"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.6">
+      <c r="C79" s="17"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.6">
       <c r="C81" s="17"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="87" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-    </row>
-    <row r="91" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.6">
+      <c r="C90" s="17"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+    </row>
+    <row r="96" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+    </row>
+    <row r="100" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L68:N84"/>
-    <mergeCell ref="L48:N54"/>
-    <mergeCell ref="L57:N64"/>
+    <mergeCell ref="L77:N93"/>
+    <mergeCell ref="L57:N63"/>
+    <mergeCell ref="L66:N73"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,19 +1861,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F356931-B154-4054-B588-114B6531C0C4}">
   <dimension ref="A1:Z90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="8" customWidth="1"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1815,9 +1889,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1832,22 +1906,22 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
+      <c r="B4" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="B5" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="B6" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="10" customFormat="1" ht="17.399999999999999">
       <c r="B7" s="19"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1870,77 +1944,77 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9" s="20"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="20"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="C19" s="20"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="C20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="C24" s="20"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="20"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26">
       <c r="C26" s="20"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26">
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="2:26" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="10" customFormat="1" ht="17.399999999999999">
       <c r="B31" s="19"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1963,170 +2037,170 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26">
       <c r="B32" s="20"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14">
       <c r="B34" s="20"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14">
       <c r="C47" s="20"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+    </row>
+    <row r="48" spans="2:14">
       <c r="D48" s="20"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+    </row>
+    <row r="49" spans="2:14">
       <c r="D49" s="20"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+    </row>
+    <row r="54" spans="2:14">
       <c r="B54" s="20"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14">
       <c r="C55" s="20"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14">
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+    </row>
+    <row r="58" spans="2:14">
       <c r="B58" s="20"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-    </row>
-    <row r="65" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+    </row>
+    <row r="65" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2142,102 +2216,102 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="67" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.6">
       <c r="C67" s="12"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.6">
       <c r="C68" s="16"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-    </row>
-    <row r="69" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.6">
       <c r="C69" s="17"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-    </row>
-    <row r="71" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+    </row>
+    <row r="71" spans="1:14" ht="15.6">
       <c r="C71" s="17"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-    </row>
-    <row r="80" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.6">
       <c r="C80" s="17"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="86" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -2253,7 +2327,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="90" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2290,7 +2364,7 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
@@ -2299,7 +2373,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="24.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2310,32 +2384,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="26"/>
+    <row r="4" spans="2:4">
+      <c r="B4" s="23"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="26"/>
+    <row r="5" spans="2:4">
+      <c r="B5" s="23"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2346,7 +2420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="31.2">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2368,32 +2442,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
+    <row r="10" spans="2:4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
+    <row r="11" spans="2:4">
+      <c r="B11" s="23"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4">
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2404,46 +2478,46 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="2:4" ht="16.5" customHeight="1">
+      <c r="B13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
-      <c r="C14" s="29"/>
+    <row r="14" spans="2:4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
-      <c r="C15" s="29"/>
+    <row r="15" spans="2:4">
+      <c r="B15" s="25"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="24"/>
-      <c r="C16" s="29"/>
+    <row r="16" spans="2:4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="25"/>
-      <c r="C17" s="30"/>
+    <row r="17" spans="2:4">
+      <c r="B17" s="26"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>

--- a/design/JuiceZombie/玩法设计.xlsx
+++ b/design/JuiceZombie/玩法设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\design\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FBC42D-2691-455A-BD97-C2F751F79A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B655D-504E-4286-95E2-10545DF6F284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,8 +1221,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/design/JuiceZombie/玩法设计.xlsx
+++ b/design/JuiceZombie/玩法设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\design\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B655D-504E-4286-95E2-10545DF6F284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC86A4B1-B747-46B8-941C-B098E1E4F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>模块</t>
   </si>
@@ -612,6 +612,14 @@
   </si>
   <si>
     <t>技能攻击中，血低，移速中等</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果关键词：范围效果；近战；回血；闪电；冰冷；火焰；毒素；反击；</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性：攻击；生命；防御</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1219,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1451,72 +1459,68 @@
     <row r="36" spans="2:8">
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="C37" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="D40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="D41" s="20"/>
       <c r="E41" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -1535,10 +1539,10 @@
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -1556,90 +1560,97 @@
     <row r="50" spans="2:14">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="E50" s="20" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="2:14">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="D55" s="20"/>
       <c r="E55" s="20" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="57" spans="2:14">
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="C60" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="D58" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="D59" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-    </row>
-    <row r="60" spans="2:14">
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
     </row>
     <row r="61" spans="2:14">
+      <c r="D61" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
     </row>
     <row r="62" spans="2:14">
+      <c r="D62" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
@@ -1650,14 +1661,14 @@
       <c r="N63" s="22"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="C65" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
     </row>
     <row r="66" spans="1:14">
       <c r="L66" s="22"/>
@@ -1665,17 +1676,14 @@
       <c r="N66" s="22"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
+      <c r="B67" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="B68" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
+      <c r="C68" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="L69" s="22"/>
@@ -1688,6 +1696,9 @@
       <c r="N70" s="22"/>
     </row>
     <row r="71" spans="1:14">
+      <c r="B71" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
@@ -1702,154 +1713,169 @@
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
     </row>
-    <row r="75" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-    </row>
-    <row r="77" spans="1:14" ht="15.6">
-      <c r="C77" s="12"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.6">
-      <c r="C78" s="16"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-    </row>
-    <row r="79" spans="1:14" ht="15.6">
-      <c r="C79" s="17"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-    </row>
-    <row r="80" spans="1:14">
+    <row r="74" spans="1:14">
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+    </row>
+    <row r="78" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.6">
+      <c r="C80" s="12"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
     </row>
-    <row r="81" spans="1:14" ht="15.6">
-      <c r="C81" s="17"/>
+    <row r="81" spans="3:14" ht="15.6">
+      <c r="C81" s="16"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="3:14" ht="15.6">
+      <c r="C82" s="17"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="3:14">
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="3:14" ht="15.6">
+      <c r="C84" s="17"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="3:14">
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="3:14">
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="3:14">
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="3:14">
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="3:14">
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
     </row>
-    <row r="90" spans="1:14" ht="15.6">
-      <c r="C90" s="17"/>
+    <row r="90" spans="3:14">
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="3:14">
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="3:14">
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="3:14" ht="15.6">
+      <c r="C93" s="17"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
     </row>
-    <row r="94" spans="1:14">
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="96" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-    </row>
-    <row r="100" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
+    <row r="94" spans="3:14">
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+    </row>
+    <row r="95" spans="3:14">
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+    </row>
+    <row r="99" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+    </row>
+    <row r="103" spans="1:14" s="10" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L77:N93"/>
-    <mergeCell ref="L57:N63"/>
-    <mergeCell ref="L66:N73"/>
+    <mergeCell ref="L80:N96"/>
+    <mergeCell ref="L60:N66"/>
+    <mergeCell ref="L69:N76"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
